--- a/predictions/Прогнозы_Holt-Winters_AdditMul.xlsx
+++ b/predictions/Прогнозы_Holt-Winters_AdditMul.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14942229.59582185</v>
+        <v>19309852.2780281</v>
       </c>
       <c r="C2" t="n">
-        <v>20051429.62995074</v>
+        <v>21913800.82475858</v>
       </c>
       <c r="D2" t="n">
-        <v>22712646.40064022</v>
+        <v>19484760.68506962</v>
       </c>
       <c r="E2" t="n">
-        <v>20158036.57882879</v>
+        <v>17544361.33991366</v>
       </c>
       <c r="F2" t="n">
-        <v>18118085.58584808</v>
+        <v>18372142.77608538</v>
       </c>
       <c r="G2" t="n">
-        <v>18939733.03226548</v>
+        <v>19351557.451776</v>
       </c>
       <c r="H2" t="n">
-        <v>18948261.85490806</v>
+        <v>20310422.30531668</v>
       </c>
       <c r="I2" t="n">
-        <v>20867002.9706552</v>
+        <v>20042289.01464628</v>
       </c>
       <c r="J2" t="n">
-        <v>20557939.94647539</v>
+        <v>20457185.44096057</v>
       </c>
       <c r="K2" t="n">
-        <v>20950012.51114</v>
+        <v>22098393.07067996</v>
       </c>
       <c r="L2" t="n">
-        <v>22595396.94922115</v>
+        <v>23592002.11027481</v>
       </c>
       <c r="M2" t="n">
-        <v>24086117.60424584</v>
+        <v>16634037.44206637</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10984094.97176615</v>
+        <v>10185168.0903726</v>
       </c>
       <c r="C3" t="n">
-        <v>11492258.41897964</v>
+        <v>11390225.09697412</v>
       </c>
       <c r="D3" t="n">
-        <v>13340896.65438699</v>
+        <v>6907313.137457316</v>
       </c>
       <c r="E3" t="n">
-        <v>8392664.165045002</v>
+        <v>8324668.834702519</v>
       </c>
       <c r="F3" t="n">
-        <v>10486472.64549976</v>
+        <v>6799788.762284192</v>
       </c>
       <c r="G3" t="n">
-        <v>8875227.365490939</v>
+        <v>6091663.897405573</v>
       </c>
       <c r="H3" t="n">
-        <v>9928903.411480268</v>
+        <v>7271058.378810409</v>
       </c>
       <c r="I3" t="n">
-        <v>10173222.35699346</v>
+        <v>744375715.8118768</v>
       </c>
       <c r="J3" t="n">
-        <v>1153920581.316465</v>
+        <v>9895588.447512712</v>
       </c>
       <c r="K3" t="n">
-        <v>14812740.69547127</v>
+        <v>10032085.86214024</v>
       </c>
       <c r="L3" t="n">
-        <v>15523198.71864011</v>
+        <v>12288175.8456551</v>
       </c>
       <c r="M3" t="n">
-        <v>19647920.39997748</v>
+        <v>8950609.981090337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18858066.8925617</v>
+        <v>55317856.78975811</v>
       </c>
       <c r="C4" t="n">
-        <v>22049296.73656831</v>
+        <v>46910967.77715836</v>
       </c>
       <c r="D4" t="n">
-        <v>15022845.94961131</v>
+        <v>87726400.75209248</v>
       </c>
       <c r="E4" t="n">
-        <v>30818869.92163507</v>
+        <v>75929073.84955014</v>
       </c>
       <c r="F4" t="n">
-        <v>24966799.62116454</v>
+        <v>79945614.31291804</v>
       </c>
       <c r="G4" t="n">
-        <v>25468673.24110767</v>
+        <v>78210321.37503518</v>
       </c>
       <c r="H4" t="n">
-        <v>25343529.3853946</v>
+        <v>27875813.9634613</v>
       </c>
       <c r="I4" t="n">
-        <v>25471828.81746154</v>
+        <v>63225227.28744191</v>
       </c>
       <c r="J4" t="n">
-        <v>18965465.15786243</v>
+        <v>82214260.1907841</v>
       </c>
       <c r="K4" t="n">
-        <v>38059278.97173107</v>
+        <v>90280457.79629347</v>
       </c>
       <c r="L4" t="n">
-        <v>34480720.81609198</v>
+        <v>85933474.1001543</v>
       </c>
       <c r="M4" t="n">
-        <v>45903745.34694769</v>
+        <v>137019815.2322505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26030615.39540265</v>
+        <v>30691118.72312648</v>
       </c>
       <c r="C5" t="n">
-        <v>32186540.40994271</v>
+        <v>26556958.82999169</v>
       </c>
       <c r="D5" t="n">
-        <v>37871665.44597268</v>
+        <v>31107378.66204899</v>
       </c>
       <c r="E5" t="n">
-        <v>385610021490.3702</v>
+        <v>32430301.79068385</v>
       </c>
       <c r="F5" t="n">
-        <v>79082079.43338732</v>
+        <v>35650052.4459774</v>
       </c>
       <c r="G5" t="n">
-        <v>72672522.09919435</v>
+        <v>30070561.3751894</v>
       </c>
       <c r="H5" t="n">
-        <v>88719951.28692754</v>
+        <v>33388499.81257765</v>
       </c>
       <c r="I5" t="n">
-        <v>113077016.1209312</v>
+        <v>36647883.1245179</v>
       </c>
       <c r="J5" t="n">
-        <v>121569428.9472214</v>
+        <v>35872061.13499068</v>
       </c>
       <c r="K5" t="n">
-        <v>91545644.93483783</v>
+        <v>41835555.08743876</v>
       </c>
       <c r="L5" t="n">
-        <v>82135473.10862722</v>
+        <v>75077943.05127966</v>
       </c>
       <c r="M5" t="n">
-        <v>87958864.84878151</v>
+        <v>9633318.566753304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9355484700.092777</v>
+        <v>1779946.923762626</v>
       </c>
       <c r="C6" t="n">
-        <v>5198619.746735164</v>
+        <v>1907162.875319851</v>
       </c>
       <c r="D6" t="n">
-        <v>3052642.49061918</v>
+        <v>1307690.807375299</v>
       </c>
       <c r="E6" t="n">
-        <v>3314089.394786789</v>
+        <v>4450551.024624392</v>
       </c>
       <c r="F6" t="n">
-        <v>19124527182.14107</v>
+        <v>1127422.408976955</v>
       </c>
       <c r="G6" t="n">
-        <v>3407484765.956394</v>
+        <v>1598517.584855361</v>
       </c>
       <c r="H6" t="n">
-        <v>14880448678.93043</v>
+        <v>1446078.126857551</v>
       </c>
       <c r="I6" t="n">
-        <v>32676106566.71214</v>
+        <v>2047948.665949599</v>
       </c>
       <c r="J6" t="n">
-        <v>22689330312.12993</v>
+        <v>1080731.370729579</v>
       </c>
       <c r="K6" t="n">
-        <v>5085045.462253905</v>
+        <v>2372668.009576085</v>
       </c>
       <c r="L6" t="n">
-        <v>5202081167.031121</v>
+        <v>2099660.042458265</v>
       </c>
       <c r="M6" t="n">
-        <v>10464598.870462</v>
+        <v>1679605.135309782</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555926.7748558435</v>
+        <v>41930887.26613896</v>
       </c>
       <c r="C7" t="n">
-        <v>2473690.634894148</v>
+        <v>57631722.8134948</v>
       </c>
       <c r="D7" t="n">
-        <v>2724252.168735859</v>
+        <v>40608416.0325573</v>
       </c>
       <c r="E7" t="n">
-        <v>3461490.509171649</v>
+        <v>36145308.07661425</v>
       </c>
       <c r="F7" t="n">
-        <v>2075665.645780273</v>
+        <v>28645346.09976361</v>
       </c>
       <c r="G7" t="n">
-        <v>4164067.592481585</v>
+        <v>40469405.45600516</v>
       </c>
       <c r="H7" t="n">
-        <v>2131908.980663152</v>
+        <v>24791008.61318361</v>
       </c>
       <c r="I7" t="n">
-        <v>2489142.584229737</v>
+        <v>20782194.37011039</v>
       </c>
       <c r="J7" t="n">
-        <v>3565635.066100419</v>
+        <v>38676889.33547631</v>
       </c>
       <c r="K7" t="n">
-        <v>2507496.00986105</v>
+        <v>16379193.25048335</v>
       </c>
       <c r="L7" t="n">
-        <v>3183196.582416212</v>
+        <v>28964688.07332429</v>
       </c>
       <c r="M7" t="n">
-        <v>6164686.797076213</v>
+        <v>27205941.58030269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>479199.8321933422</v>
+        <v>21649280.00159824</v>
       </c>
       <c r="C8" t="n">
-        <v>1173483.316100754</v>
+        <v>24351938.47094019</v>
       </c>
       <c r="D8" t="n">
-        <v>854696.4165038369</v>
+        <v>23740224.72974259</v>
       </c>
       <c r="E8" t="n">
-        <v>1105757.197805583</v>
+        <v>21572530.11413844</v>
       </c>
       <c r="F8" t="n">
-        <v>867349.4655694593</v>
+        <v>21519778.52311986</v>
       </c>
       <c r="G8" t="n">
-        <v>1511943.520430603</v>
+        <v>21470982.32439896</v>
       </c>
       <c r="H8" t="n">
-        <v>1647885.597740379</v>
+        <v>17109621.44407945</v>
       </c>
       <c r="I8" t="n">
-        <v>1476479.67377361</v>
+        <v>20782043.75675971</v>
       </c>
       <c r="J8" t="n">
-        <v>1434714.089332981</v>
+        <v>20629843.52567504</v>
       </c>
       <c r="K8" t="n">
-        <v>1773364.982544278</v>
+        <v>22829150.12406823</v>
       </c>
       <c r="L8" t="n">
-        <v>2776756.202739383</v>
+        <v>30590467.21941558</v>
       </c>
       <c r="M8" t="n">
-        <v>1624241.67030773</v>
+        <v>14741419.83239342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11791936.94873755</v>
+        <v>28928304.62980504</v>
       </c>
       <c r="C9" t="n">
-        <v>266362131106.7909</v>
+        <v>33419776.177784</v>
       </c>
       <c r="D9" t="n">
-        <v>27910464.95797186</v>
+        <v>37513245.98184585</v>
       </c>
       <c r="E9" t="n">
-        <v>33089943.11567381</v>
+        <v>32493171.19708515</v>
       </c>
       <c r="F9" t="n">
-        <v>41555519.35786188</v>
+        <v>33085205.94929211</v>
       </c>
       <c r="G9" t="n">
-        <v>35913955.40586428</v>
+        <v>31041472.16742587</v>
       </c>
       <c r="H9" t="n">
-        <v>40816793.9453135</v>
+        <v>34001296.80691513</v>
       </c>
       <c r="I9" t="n">
-        <v>30622618.43401824</v>
+        <v>28716420.70019791</v>
       </c>
       <c r="J9" t="n">
-        <v>32095596.7300149</v>
+        <v>28970103.5323618</v>
       </c>
       <c r="K9" t="n">
-        <v>35577699.97287356</v>
+        <v>29385610.95444451</v>
       </c>
       <c r="L9" t="n">
-        <v>37348898.49062254</v>
+        <v>47349020.04611673</v>
       </c>
       <c r="M9" t="n">
-        <v>40104522.52372949</v>
+        <v>27749247.34950162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3410727.834270108</v>
+        <v>-156551.6230519946</v>
       </c>
       <c r="C10" t="n">
-        <v>8688954.976064751</v>
+        <v>-1248254.967873488</v>
       </c>
       <c r="D10" t="n">
-        <v>11893140.65211697</v>
+        <v>-2451967.427009563</v>
       </c>
       <c r="E10" t="n">
-        <v>13931364.13656254</v>
+        <v>-2870489.655535137</v>
       </c>
       <c r="F10" t="n">
-        <v>12767714.65094229</v>
+        <v>-3973606.773400358</v>
       </c>
       <c r="G10" t="n">
-        <v>10690915.72265724</v>
+        <v>-4271267.556182258</v>
       </c>
       <c r="H10" t="n">
-        <v>10101406.32103585</v>
+        <v>-3233945.684162922</v>
       </c>
       <c r="I10" t="n">
-        <v>10753088.08302823</v>
+        <v>-3841038.38386817</v>
       </c>
       <c r="J10" t="n">
-        <v>11586949.36531367</v>
+        <v>-4845078.277526947</v>
       </c>
       <c r="K10" t="n">
-        <v>9183576.880738124</v>
+        <v>-4530991.919391827</v>
       </c>
       <c r="L10" t="n">
-        <v>14318397.28661717</v>
+        <v>-5672091.387046937</v>
       </c>
       <c r="M10" t="n">
-        <v>28136770.73458211</v>
+        <v>-294404169.0220436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1352708.373935076</v>
+        <v>19690768.09364128</v>
       </c>
       <c r="C11" t="n">
-        <v>1549885.733218081</v>
+        <v>19741965.83101302</v>
       </c>
       <c r="D11" t="n">
-        <v>1456117.500720505</v>
+        <v>22089318.05449663</v>
       </c>
       <c r="E11" t="n">
-        <v>777200.4597014217</v>
+        <v>12933661.42048821</v>
       </c>
       <c r="F11" t="n">
-        <v>5429672.256242357</v>
+        <v>16867802.89971538</v>
       </c>
       <c r="G11" t="n">
-        <v>632653.9870637631</v>
+        <v>18934062.82261235</v>
       </c>
       <c r="H11" t="n">
-        <v>1793534.436405478</v>
+        <v>18896923.21445958</v>
       </c>
       <c r="I11" t="n">
-        <v>1577869.844318031</v>
+        <v>22875943.12874835</v>
       </c>
       <c r="J11" t="n">
-        <v>3419025.822942262</v>
+        <v>26853861.49286451</v>
       </c>
       <c r="K11" t="n">
-        <v>1300716.976934267</v>
+        <v>39375739.88481779</v>
       </c>
       <c r="L11" t="n">
-        <v>3243503.007630196</v>
+        <v>47582674.10527485</v>
       </c>
       <c r="M11" t="n">
-        <v>1669316.05001276</v>
+        <v>17804073.37250209</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>388941.8645550503</v>
+        <v>44285266.45471157</v>
       </c>
       <c r="C12" t="n">
-        <v>578540.0099618974</v>
+        <v>41851221.07033027</v>
       </c>
       <c r="D12" t="n">
-        <v>755505.8278264259</v>
+        <v>46680185.00746451</v>
       </c>
       <c r="E12" t="n">
-        <v>574295.5035258381</v>
+        <v>40051716.69419819</v>
       </c>
       <c r="F12" t="n">
-        <v>558700.9174339809</v>
+        <v>44749195.85204003</v>
       </c>
       <c r="G12" t="n">
-        <v>473306.2917175652</v>
+        <v>49003032.40562938</v>
       </c>
       <c r="H12" t="n">
-        <v>555169.9533862247</v>
+        <v>45251811.05143686</v>
       </c>
       <c r="I12" t="n">
-        <v>367330.0298050096</v>
+        <v>51303200.52216785</v>
       </c>
       <c r="J12" t="n">
-        <v>433252.2644586983</v>
+        <v>54749699.44194455</v>
       </c>
       <c r="K12" t="n">
-        <v>364062.0282428205</v>
+        <v>53609571.15505394</v>
       </c>
       <c r="L12" t="n">
-        <v>436154.0861722272</v>
+        <v>44342596.97448541</v>
       </c>
       <c r="M12" t="n">
-        <v>377462.7923637915</v>
+        <v>42445228.63167094</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1411317.834079814</v>
+        <v>36012248.91473617</v>
       </c>
       <c r="C13" t="n">
-        <v>1488101.945500495</v>
+        <v>33990794.70573691</v>
       </c>
       <c r="D13" t="n">
-        <v>2475529.906148151</v>
+        <v>38638707.72839682</v>
       </c>
       <c r="E13" t="n">
-        <v>2014023.141047802</v>
+        <v>32287068.31414276</v>
       </c>
       <c r="F13" t="n">
-        <v>3071105.443541949</v>
+        <v>37244398.77394683</v>
       </c>
       <c r="G13" t="n">
-        <v>2197181.090702816</v>
+        <v>39856829.75564749</v>
       </c>
       <c r="H13" t="n">
-        <v>165727689.3499996</v>
+        <v>43960908.63587857</v>
       </c>
       <c r="I13" t="n">
-        <v>4751204.704995129</v>
+        <v>43353508.77323051</v>
       </c>
       <c r="J13" t="n">
-        <v>3927081.118468601</v>
+        <v>46315828.98353069</v>
       </c>
       <c r="K13" t="n">
-        <v>6140296.286579198</v>
+        <v>39667913.53864104</v>
       </c>
       <c r="L13" t="n">
-        <v>4058183.520343298</v>
+        <v>36720939.49884211</v>
       </c>
       <c r="M13" t="n">
-        <v>4800196.819830378</v>
+        <v>34481165.65278559</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47955.07443026649</v>
+        <v>6445399701.217896</v>
       </c>
       <c r="C14" t="n">
-        <v>237141.8123436122</v>
+        <v>1577036.557231059</v>
       </c>
       <c r="D14" t="n">
-        <v>448199.4934633176</v>
+        <v>1424807.40688202</v>
       </c>
       <c r="E14" t="n">
-        <v>466781.1397853729</v>
+        <v>1286443.064140398</v>
       </c>
       <c r="F14" t="n">
-        <v>178205.5180095281</v>
+        <v>1697271.17263039</v>
       </c>
       <c r="G14" t="n">
-        <v>174589.0374676744</v>
+        <v>2303833.170445106</v>
       </c>
       <c r="H14" t="n">
-        <v>322868.7420585423</v>
+        <v>1106124.751927334</v>
       </c>
       <c r="I14" t="n">
-        <v>155389.0704943473</v>
+        <v>1050092.419612445</v>
       </c>
       <c r="J14" t="n">
-        <v>129596.5365514101</v>
+        <v>1001398.945921895</v>
       </c>
       <c r="K14" t="n">
-        <v>294781.9953778208</v>
+        <v>985748.6429559956</v>
       </c>
       <c r="L14" t="n">
-        <v>94126.22898004481</v>
+        <v>979656.9449676926</v>
       </c>
       <c r="M14" t="n">
-        <v>157802.7303598413</v>
+        <v>950620.5142350342</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>960962.9352729812</v>
+        <v>6741096.823584313</v>
       </c>
       <c r="C15" t="n">
-        <v>742150.7077894533</v>
+        <v>9017428.193529705</v>
       </c>
       <c r="D15" t="n">
-        <v>772602.563526728</v>
+        <v>12256389.68351295</v>
       </c>
       <c r="E15" t="n">
-        <v>920521.1925086384</v>
+        <v>7084873.027679608</v>
       </c>
       <c r="F15" t="n">
-        <v>807705.3251935265</v>
+        <v>7153556.796429189</v>
       </c>
       <c r="G15" t="n">
-        <v>4472588.347063783</v>
+        <v>4943023.273532554</v>
       </c>
       <c r="H15" t="n">
-        <v>2147094.431289657</v>
+        <v>6500943.610258697</v>
       </c>
       <c r="I15" t="n">
-        <v>1185809.40301123</v>
+        <v>4579753.808031181</v>
       </c>
       <c r="J15" t="n">
-        <v>1220813.080514733</v>
+        <v>4570062.623335815</v>
       </c>
       <c r="K15" t="n">
-        <v>1385005.295542495</v>
+        <v>7042855.672731037</v>
       </c>
       <c r="L15" t="n">
-        <v>1323229.842392178</v>
+        <v>5567310.980323243</v>
       </c>
       <c r="M15" t="n">
-        <v>1852002.722868135</v>
+        <v>6572326.690064778</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>912838.546117462</v>
+        <v>5656027.168530437</v>
       </c>
       <c r="C16" t="n">
-        <v>1601693.1618804</v>
+        <v>34337264708.82217</v>
       </c>
       <c r="D16" t="n">
-        <v>1460051.387947131</v>
+        <v>8719847.802622529</v>
       </c>
       <c r="E16" t="n">
-        <v>1504858.18547333</v>
+        <v>7338027.171149085</v>
       </c>
       <c r="F16" t="n">
-        <v>1787374.13520678</v>
+        <v>3940955025.754402</v>
       </c>
       <c r="G16" t="n">
-        <v>1857868.179142523</v>
+        <v>43000531379.42155</v>
       </c>
       <c r="H16" t="n">
-        <v>3363019.945726317</v>
+        <v>181388476921.4979</v>
       </c>
       <c r="I16" t="n">
-        <v>2181806.928555504</v>
+        <v>10073079.22098624</v>
       </c>
       <c r="J16" t="n">
-        <v>2166680.819043095</v>
+        <v>15496860462.40813</v>
       </c>
       <c r="K16" t="n">
-        <v>2371528.771991022</v>
+        <v>10576471.19510112</v>
       </c>
       <c r="L16" t="n">
-        <v>2059138.083199124</v>
+        <v>10981983.37033923</v>
       </c>
       <c r="M16" t="n">
-        <v>3061432.084866459</v>
+        <v>9495100.069828371</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4137082.650163083</v>
+        <v>5329245.29969946</v>
       </c>
       <c r="C17" t="n">
-        <v>6832207.485524932</v>
+        <v>3792580.131456211</v>
       </c>
       <c r="D17" t="n">
-        <v>7458308.120236206</v>
+        <v>4454467.400029101</v>
       </c>
       <c r="E17" t="n">
-        <v>6830357.97222876</v>
+        <v>4347573.784364962</v>
       </c>
       <c r="F17" t="n">
-        <v>10307403.2234396</v>
+        <v>7004468.26348858</v>
       </c>
       <c r="G17" t="n">
-        <v>7133584.256374908</v>
+        <v>6497686.738647536</v>
       </c>
       <c r="H17" t="n">
-        <v>701403645.9951843</v>
+        <v>6884966.044691394</v>
       </c>
       <c r="I17" t="n">
-        <v>11429898.42107015</v>
+        <v>8716904.522556869</v>
       </c>
       <c r="J17" t="n">
-        <v>10553220.22820539</v>
+        <v>8656751.005909521</v>
       </c>
       <c r="K17" t="n">
-        <v>8208097.727779616</v>
+        <v>6967649.28577482</v>
       </c>
       <c r="L17" t="n">
-        <v>7997520.494561246</v>
+        <v>5714576.726702056</v>
       </c>
       <c r="M17" t="n">
-        <v>7471515.402520863</v>
+        <v>3907225.563584485</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>112082.7715003155</v>
+        <v>4695787.82925826</v>
       </c>
       <c r="C18" t="n">
-        <v>217100.5578969776</v>
+        <v>4049047.371883848</v>
       </c>
       <c r="D18" t="n">
-        <v>184470.8592262602</v>
+        <v>4156404.240756377</v>
       </c>
       <c r="E18" t="n">
-        <v>90012.37314201411</v>
+        <v>5559390.326491238</v>
       </c>
       <c r="F18" t="n">
-        <v>11406.15984030628</v>
+        <v>4021221.235343946</v>
       </c>
       <c r="G18" t="n">
-        <v>-48240.51673018069</v>
+        <v>3685453.443224607</v>
       </c>
       <c r="H18" t="n">
-        <v>-80531.67389828635</v>
+        <v>4220623.60306587</v>
       </c>
       <c r="I18" t="n">
-        <v>-79339.85182816946</v>
+        <v>4584805.037820609</v>
       </c>
       <c r="J18" t="n">
-        <v>-235002.8237240354</v>
+        <v>3765855.806740494</v>
       </c>
       <c r="K18" t="n">
-        <v>-204788.8452658798</v>
+        <v>3546251.203678739</v>
       </c>
       <c r="L18" t="n">
-        <v>-374156.7495761975</v>
+        <v>4695145.763839193</v>
       </c>
       <c r="M18" t="n">
-        <v>-1317773.644764338</v>
+        <v>3728346.78662983</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-48813.96989371278</v>
+        <v>5412328.011631656</v>
       </c>
       <c r="C19" t="n">
-        <v>-76213.62478125528</v>
+        <v>7372500.745444627</v>
       </c>
       <c r="D19" t="n">
-        <v>-113951.7554543153</v>
+        <v>5014176.76549504</v>
       </c>
       <c r="E19" t="n">
-        <v>-40731.82155459208</v>
+        <v>4402858.050657172</v>
       </c>
       <c r="F19" t="n">
-        <v>-82296.1947477998</v>
+        <v>4313863.390887467</v>
       </c>
       <c r="G19" t="n">
-        <v>-26823.20590082888</v>
+        <v>6911387.456286579</v>
       </c>
       <c r="H19" t="n">
-        <v>-101078.5703279129</v>
+        <v>8239369.236335251</v>
       </c>
       <c r="I19" t="n">
-        <v>-49199.40679317644</v>
+        <v>5485130.146914205</v>
       </c>
       <c r="J19" t="n">
-        <v>-210271.9166836735</v>
+        <v>7842706.324325096</v>
       </c>
       <c r="K19" t="n">
-        <v>-129568.6466441367</v>
+        <v>6017165.116243468</v>
       </c>
       <c r="L19" t="n">
-        <v>-81236.67425972079</v>
+        <v>7549294.05340645</v>
       </c>
       <c r="M19" t="n">
-        <v>-139342.9990681064</v>
+        <v>3839425.896010525</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>843797.7942758191</v>
+        <v>1217421.570161345</v>
       </c>
       <c r="C20" t="n">
-        <v>2566586.33693416</v>
+        <v>922814.4553378598</v>
       </c>
       <c r="D20" t="n">
-        <v>2226211.525583479</v>
+        <v>325550.080150635</v>
       </c>
       <c r="E20" t="n">
-        <v>2287451.903253789</v>
+        <v>165088.5224423531</v>
       </c>
       <c r="F20" t="n">
-        <v>2292673.270167639</v>
+        <v>-65901.8872356575</v>
       </c>
       <c r="G20" t="n">
-        <v>2849790.767539129</v>
+        <v>-267303.1380462819</v>
       </c>
       <c r="H20" t="n">
-        <v>2216046.880255982</v>
+        <v>-396504.5518473144</v>
       </c>
       <c r="I20" t="n">
-        <v>2418925.037601847</v>
+        <v>-783826.2248710555</v>
       </c>
       <c r="J20" t="n">
-        <v>2433481.18059763</v>
+        <v>-1149677.979740304</v>
       </c>
       <c r="K20" t="n">
-        <v>2672851.491744838</v>
+        <v>-1499534.93713259</v>
       </c>
       <c r="L20" t="n">
-        <v>2591536.682623727</v>
+        <v>-1213379.413354965</v>
       </c>
       <c r="M20" t="n">
-        <v>3067793.945456841</v>
+        <v>-1436756.88112413</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>944422.5322573488</v>
+        <v>2761863.309105112</v>
       </c>
       <c r="C21" t="n">
-        <v>2090482.068184902</v>
+        <v>2920544.862015605</v>
       </c>
       <c r="D21" t="n">
-        <v>1495416.215083503</v>
+        <v>3798034.297152654</v>
       </c>
       <c r="E21" t="n">
-        <v>2567273.447238949</v>
+        <v>3269564.406510109</v>
       </c>
       <c r="F21" t="n">
-        <v>2451959.854369661</v>
+        <v>4229540.888823367</v>
       </c>
       <c r="G21" t="n">
-        <v>1679631.32792743</v>
+        <v>3409612.518323872</v>
       </c>
       <c r="H21" t="n">
-        <v>2243919.027817027</v>
+        <v>2946544.856523024</v>
       </c>
       <c r="I21" t="n">
-        <v>1117743.286629927</v>
+        <v>3225592.750490536</v>
       </c>
       <c r="J21" t="n">
-        <v>1161767.416985824</v>
+        <v>4831669.21088683</v>
       </c>
       <c r="K21" t="n">
-        <v>2564595.493197884</v>
+        <v>4341969.336190565</v>
       </c>
       <c r="L21" t="n">
-        <v>1353849.866570682</v>
+        <v>4748703.634458504</v>
       </c>
       <c r="M21" t="n">
-        <v>1212253.801122204</v>
+        <v>3676706.706934733</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>486423.6128029645</v>
+        <v>10292778.81775775</v>
       </c>
       <c r="C22" t="n">
-        <v>304030.5528357993</v>
+        <v>10366561.35041734</v>
       </c>
       <c r="D22" t="n">
-        <v>473740.1193692645</v>
+        <v>14678078.44252333</v>
       </c>
       <c r="E22" t="n">
-        <v>342731.3187802908</v>
+        <v>11022719.17731327</v>
       </c>
       <c r="F22" t="n">
-        <v>272290.5855441389</v>
+        <v>13829400.55593615</v>
       </c>
       <c r="G22" t="n">
-        <v>347658.8262580268</v>
+        <v>12103188.22441134</v>
       </c>
       <c r="H22" t="n">
-        <v>172651.0522683054</v>
+        <v>10902198.79533878</v>
       </c>
       <c r="I22" t="n">
-        <v>140599.1857967823</v>
+        <v>14254268.84380278</v>
       </c>
       <c r="J22" t="n">
-        <v>140993.7791961061</v>
+        <v>17392220.99652003</v>
       </c>
       <c r="K22" t="n">
-        <v>191699.1020459172</v>
+        <v>15988097.85130528</v>
       </c>
       <c r="L22" t="n">
-        <v>357243.4203902903</v>
+        <v>16651062.85098871</v>
       </c>
       <c r="M22" t="n">
-        <v>548030.5373354842</v>
+        <v>11207431.2795253</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3085.724987737908</v>
+        <v>9402381.775281137</v>
       </c>
       <c r="C23" t="n">
-        <v>10441.89862462341</v>
+        <v>8504656.629963201</v>
       </c>
       <c r="D23" t="n">
-        <v>10716.73935663634</v>
+        <v>9351358.243066235</v>
       </c>
       <c r="E23" t="n">
-        <v>4490.119953501135</v>
+        <v>7390634.447832534</v>
       </c>
       <c r="F23" t="n">
-        <v>8431.091948405543</v>
+        <v>9260745.523275476</v>
       </c>
       <c r="G23" t="n">
-        <v>9.555896558268028</v>
+        <v>8629986.38770424</v>
       </c>
       <c r="H23" t="n">
-        <v>5003.243413381171</v>
+        <v>15515907.30681621</v>
       </c>
       <c r="I23" t="n">
-        <v>5579.967722516709</v>
+        <v>11585631.89431505</v>
       </c>
       <c r="J23" t="n">
-        <v>6156.795546267012</v>
+        <v>8268870.10923162</v>
       </c>
       <c r="K23" t="n">
-        <v>6838.186880747</v>
+        <v>7885133.151180499</v>
       </c>
       <c r="L23" t="n">
-        <v>8368.966709996286</v>
+        <v>7520524.040811372</v>
       </c>
       <c r="M23" t="n">
-        <v>58389.74156962566</v>
+        <v>3525203.982812594</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7583139.095008671</v>
+        <v>9616223.418885598</v>
       </c>
       <c r="C24" t="n">
-        <v>12853503.71748038</v>
+        <v>12738531.9442351</v>
       </c>
       <c r="D24" t="n">
-        <v>16241451.83380497</v>
+        <v>13010259.79597122</v>
       </c>
       <c r="E24" t="n">
-        <v>14934475.54200914</v>
+        <v>9160230.811523188</v>
       </c>
       <c r="F24" t="n">
-        <v>13297810.00467773</v>
+        <v>11011211.44916653</v>
       </c>
       <c r="G24" t="n">
-        <v>13377494.01354176</v>
+        <v>11724657.11287591</v>
       </c>
       <c r="H24" t="n">
-        <v>14472954.82943336</v>
+        <v>9098723.49874763</v>
       </c>
       <c r="I24" t="n">
-        <v>10719121.8948215</v>
+        <v>13787261.44741336</v>
       </c>
       <c r="J24" t="n">
-        <v>13081775.8381393</v>
+        <v>11975088.33254476</v>
       </c>
       <c r="K24" t="n">
-        <v>10818124.07688065</v>
+        <v>11855493.20365793</v>
       </c>
       <c r="L24" t="n">
-        <v>11672470.77933292</v>
+        <v>18198076.81207715</v>
       </c>
       <c r="M24" t="n">
-        <v>16050327.98392217</v>
+        <v>8003788.642571358</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2044691.799160248</v>
+        <v>4342604.670738462</v>
       </c>
       <c r="C25" t="n">
-        <v>3008017.11796077</v>
+        <v>5416943.849445293</v>
       </c>
       <c r="D25" t="n">
-        <v>2739765.765637121</v>
+        <v>5392541.938053717</v>
       </c>
       <c r="E25" t="n">
-        <v>2860191.65650107</v>
+        <v>3833267.5460035</v>
       </c>
       <c r="F25" t="n">
-        <v>2812975.33656394</v>
+        <v>4068666.754979435</v>
       </c>
       <c r="G25" t="n">
-        <v>2450031.80283337</v>
+        <v>4816546.543492691</v>
       </c>
       <c r="H25" t="n">
-        <v>2575005.195327343</v>
+        <v>4213837.808153492</v>
       </c>
       <c r="I25" t="n">
-        <v>2697260.028313433</v>
+        <v>5976672.024042434</v>
       </c>
       <c r="J25" t="n">
-        <v>2407394.678602671</v>
+        <v>5722841.285798639</v>
       </c>
       <c r="K25" t="n">
-        <v>3098250.634226074</v>
+        <v>5184515.001119668</v>
       </c>
       <c r="L25" t="n">
-        <v>3129468.9498269</v>
+        <v>6191457.312051412</v>
       </c>
       <c r="M25" t="n">
-        <v>2957290.822360368</v>
+        <v>3656522.85853375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10170287.97879717</v>
+        <v>11009960.62764112</v>
       </c>
       <c r="C26" t="n">
-        <v>10974372.14038926</v>
+        <v>10873380.46933702</v>
       </c>
       <c r="D26" t="n">
-        <v>16185452.32112261</v>
+        <v>10008746.21954196</v>
       </c>
       <c r="E26" t="n">
-        <v>22481120.25315491</v>
+        <v>11552121.64809944</v>
       </c>
       <c r="F26" t="n">
-        <v>18522231.78739929</v>
+        <v>10102187.1040595</v>
       </c>
       <c r="G26" t="n">
-        <v>18817317.6208819</v>
+        <v>9457548.528884552</v>
       </c>
       <c r="H26" t="n">
-        <v>18003708.36755801</v>
+        <v>13538016.18341409</v>
       </c>
       <c r="I26" t="n">
-        <v>19402751.00332629</v>
+        <v>13366286.81191581</v>
       </c>
       <c r="J26" t="n">
-        <v>13664017.45204808</v>
+        <v>13115853.73851284</v>
       </c>
       <c r="K26" t="n">
-        <v>14100813.99010651</v>
+        <v>11342689.98859818</v>
       </c>
       <c r="L26" t="n">
-        <v>13310358.08756455</v>
+        <v>15591986.43139051</v>
       </c>
       <c r="M26" t="n">
-        <v>17380788.19888999</v>
+        <v>11235825.40085443</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15123088.91846885</v>
+        <v>3354649.563297369</v>
       </c>
       <c r="C27" t="n">
-        <v>19023435.34416876</v>
+        <v>4002159.531779075</v>
       </c>
       <c r="D27" t="n">
-        <v>19063175.43170093</v>
+        <v>3267408.733299968</v>
       </c>
       <c r="E27" t="n">
-        <v>17842064.01701643</v>
+        <v>2838646.276375654</v>
       </c>
       <c r="F27" t="n">
-        <v>16524859.85034943</v>
+        <v>2168932.322997134</v>
       </c>
       <c r="G27" t="n">
-        <v>17063796.14356075</v>
+        <v>3454601.401917336</v>
       </c>
       <c r="H27" t="n">
-        <v>16823049.99269214</v>
+        <v>3447437.146024358</v>
       </c>
       <c r="I27" t="n">
-        <v>17494124.59087661</v>
+        <v>2887589.961026716</v>
       </c>
       <c r="J27" t="n">
-        <v>17704219.21259179</v>
+        <v>3093206.090968281</v>
       </c>
       <c r="K27" t="n">
-        <v>17618512.31184338</v>
+        <v>2513673.115964706</v>
       </c>
       <c r="L27" t="n">
-        <v>19171322.0323333</v>
+        <v>3453857.064179486</v>
       </c>
       <c r="M27" t="n">
-        <v>34259318.64193143</v>
+        <v>2004190.97372097</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>987780539.8072207</v>
+        <v>12721155.10531857</v>
       </c>
       <c r="C28" t="n">
-        <v>25881348.70297458</v>
+        <v>12588925.18411906</v>
       </c>
       <c r="D28" t="n">
-        <v>39955580.29154412</v>
+        <v>13598429.73426569</v>
       </c>
       <c r="E28" t="n">
-        <v>44483626.64870096</v>
+        <v>9435611.468794581</v>
       </c>
       <c r="F28" t="n">
-        <v>36879955.89457824</v>
+        <v>12683869.28288128</v>
       </c>
       <c r="G28" t="n">
-        <v>39952279.98352342</v>
+        <v>12695590.26834084</v>
       </c>
       <c r="H28" t="n">
-        <v>26550338.15391132</v>
+        <v>12684057.20755747</v>
       </c>
       <c r="I28" t="n">
-        <v>23138030.86100512</v>
+        <v>9383296.499168495</v>
       </c>
       <c r="J28" t="n">
-        <v>24227167.31626844</v>
+        <v>8583045.821975753</v>
       </c>
       <c r="K28" t="n">
-        <v>27448215.08538075</v>
+        <v>12189373.24042152</v>
       </c>
       <c r="L28" t="n">
-        <v>23388977.42209877</v>
+        <v>18380117.318949</v>
       </c>
       <c r="M28" t="n">
-        <v>26983311.52508609</v>
+        <v>10249780.41499243</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11785343.79629355</v>
+        <v>1846708.701802819</v>
       </c>
       <c r="C29" t="n">
-        <v>13053027.06666151</v>
+        <v>2302312.285961599</v>
       </c>
       <c r="D29" t="n">
-        <v>13028356.38001155</v>
+        <v>1806769.877282751</v>
       </c>
       <c r="E29" t="n">
-        <v>14659823.55024629</v>
+        <v>1646431.839447139</v>
       </c>
       <c r="F29" t="n">
-        <v>8588152.312518809</v>
+        <v>1911506.179858521</v>
       </c>
       <c r="G29" t="n">
-        <v>11184447.15184507</v>
+        <v>1841317.814765385</v>
       </c>
       <c r="H29" t="n">
-        <v>12069050.93181909</v>
+        <v>1642549.730987449</v>
       </c>
       <c r="I29" t="n">
-        <v>12529459.76479862</v>
+        <v>1639725.777588831</v>
       </c>
       <c r="J29" t="n">
-        <v>15167248.23356043</v>
+        <v>1463346.690224717</v>
       </c>
       <c r="K29" t="n">
-        <v>17803534.93630853</v>
+        <v>2008245.93714832</v>
       </c>
       <c r="L29" t="n">
-        <v>236602055.4148982</v>
+        <v>2156773.758836754</v>
       </c>
       <c r="M29" t="n">
-        <v>19114124.84730485</v>
+        <v>1734050.230642055</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38776791.39490856</v>
+        <v>292240.3568198062</v>
       </c>
       <c r="C30" t="n">
-        <v>45751504.93511371</v>
+        <v>242008.4266774608</v>
       </c>
       <c r="D30" t="n">
-        <v>43299306.03077053</v>
+        <v>403290.6946316163</v>
       </c>
       <c r="E30" t="n">
-        <v>48363559.90305534</v>
+        <v>274205.4573690041</v>
       </c>
       <c r="F30" t="n">
-        <v>41553360.7192926</v>
+        <v>227111.9796353639</v>
       </c>
       <c r="G30" t="n">
-        <v>46489672.52386359</v>
+        <v>359796.4835060748</v>
       </c>
       <c r="H30" t="n">
-        <v>56289303.51429769</v>
+        <v>350463.5190543666</v>
       </c>
       <c r="I30" t="n">
-        <v>47135355.67734146</v>
+        <v>547453.7786429387</v>
       </c>
       <c r="J30" t="n">
-        <v>53506182.17980243</v>
+        <v>430026.6572298065</v>
       </c>
       <c r="K30" t="n">
-        <v>57171391.29573935</v>
+        <v>442397.4760682603</v>
       </c>
       <c r="L30" t="n">
-        <v>56048747.8874029</v>
+        <v>743860.671814465</v>
       </c>
       <c r="M30" t="n">
-        <v>46416254.32026673</v>
+        <v>497114.6294091734</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34539903.91028294</v>
+        <v>1446280.174450314</v>
       </c>
       <c r="C31" t="n">
-        <v>37774003.69083509</v>
+        <v>2041148.181032398</v>
       </c>
       <c r="D31" t="n">
-        <v>35724198.43051846</v>
+        <v>2202068.829787463</v>
       </c>
       <c r="E31" t="n">
-        <v>40688481.06387515</v>
+        <v>1396130.756834529</v>
       </c>
       <c r="F31" t="n">
-        <v>34065896.19825251</v>
+        <v>1627150.181826342</v>
       </c>
       <c r="G31" t="n">
-        <v>39371891.76648818</v>
+        <v>1230078.041684431</v>
       </c>
       <c r="H31" t="n">
-        <v>44885467.61731247</v>
+        <v>1360018.468599904</v>
       </c>
       <c r="I31" t="n">
-        <v>46648758.16122749</v>
+        <v>1933679.337579027</v>
       </c>
       <c r="J31" t="n">
-        <v>46090178.20964172</v>
+        <v>2217094.424005795</v>
       </c>
       <c r="K31" t="n">
-        <v>49330684.00526834</v>
+        <v>2429703.999334553</v>
       </c>
       <c r="L31" t="n">
-        <v>42327591.64005081</v>
+        <v>2459597.379399701</v>
       </c>
       <c r="M31" t="n">
-        <v>39254995.04855956</v>
+        <v>1216768.307133466</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1629744.828750498</v>
+        <v>1531469.39066417</v>
       </c>
       <c r="C32" t="n">
-        <v>41132146.16586499</v>
+        <v>1931190.636732253</v>
       </c>
       <c r="D32" t="n">
-        <v>2764044.430706014</v>
+        <v>2044960.307661526</v>
       </c>
       <c r="E32" t="n">
-        <v>2819389.82069746</v>
+        <v>1828017.808638893</v>
       </c>
       <c r="F32" t="n">
-        <v>2777867.273901009</v>
+        <v>1979341.462076477</v>
       </c>
       <c r="G32" t="n">
-        <v>3951130.752381645</v>
+        <v>1990110.894365485</v>
       </c>
       <c r="H32" t="n">
-        <v>3943567.459541915</v>
+        <v>1231243.670805247</v>
       </c>
       <c r="I32" t="n">
-        <v>2795669.360463341</v>
+        <v>1665608.447689648</v>
       </c>
       <c r="J32" t="n">
-        <v>2961770.027062173</v>
+        <v>1933326.098058214</v>
       </c>
       <c r="K32" t="n">
-        <v>3127942.118442236</v>
+        <v>2080965.701230664</v>
       </c>
       <c r="L32" t="n">
-        <v>3294410.820654152</v>
+        <v>2230405.822165104</v>
       </c>
       <c r="M32" t="n">
-        <v>3460840.39717865</v>
+        <v>1617874.503429395</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6436952.069293601</v>
+        <v>2577074.141390061</v>
       </c>
       <c r="C33" t="n">
-        <v>8440978.067686921</v>
+        <v>3152172.742537602</v>
       </c>
       <c r="D33" t="n">
-        <v>11243187.39682345</v>
+        <v>3385890.56172287</v>
       </c>
       <c r="E33" t="n">
-        <v>15218924.52784666</v>
+        <v>3237956.313762963</v>
       </c>
       <c r="F33" t="n">
-        <v>8762760.536902079</v>
+        <v>5576896.028846844</v>
       </c>
       <c r="G33" t="n">
-        <v>8814228.91218951</v>
+        <v>6144541.75608872</v>
       </c>
       <c r="H33" t="n">
-        <v>4085236.266425834</v>
+        <v>6132197.391976587</v>
       </c>
       <c r="I33" t="n">
-        <v>7952172.686402004</v>
+        <v>5537594.838212528</v>
       </c>
       <c r="J33" t="n">
-        <v>5583553.12946127</v>
+        <v>5579643.585397289</v>
       </c>
       <c r="K33" t="n">
-        <v>5553697.036715378</v>
+        <v>3254202.555985553</v>
       </c>
       <c r="L33" t="n">
-        <v>8531879.263963893</v>
+        <v>3582688.344578245</v>
       </c>
       <c r="M33" t="n">
-        <v>6723724.658394139</v>
+        <v>3537435.975283781</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11583759.03610927</v>
+        <v>2511835.747046108</v>
       </c>
       <c r="C34" t="n">
-        <v>8820472.999226609</v>
+        <v>2727313.129548843</v>
       </c>
       <c r="D34" t="n">
-        <v>8543685.355116809</v>
+        <v>3029406.989597598</v>
       </c>
       <c r="E34" t="n">
-        <v>13307872.30811437</v>
+        <v>3060098.873483184</v>
       </c>
       <c r="F34" t="n">
-        <v>11087707.94347422</v>
+        <v>3131583.028716253</v>
       </c>
       <c r="G34" t="n">
-        <v>11038968.86335378</v>
+        <v>2845377.89616085</v>
       </c>
       <c r="H34" t="n">
-        <v>10062017.25749781</v>
+        <v>4134249.325335334</v>
       </c>
       <c r="I34" t="n">
-        <v>7949108.02818581</v>
+        <v>2736180.272758716</v>
       </c>
       <c r="J34" t="n">
-        <v>14647433.52795694</v>
+        <v>4188063.811277697</v>
       </c>
       <c r="K34" t="n">
-        <v>12940120.64859962</v>
+        <v>2996428.126791207</v>
       </c>
       <c r="L34" t="n">
-        <v>15130392.83834543</v>
+        <v>3677979.527309029</v>
       </c>
       <c r="M34" t="n">
-        <v>15591474.03646783</v>
+        <v>3049411.848960076</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3794459.626431016</v>
+        <v>703605.1265879127</v>
       </c>
       <c r="C35" t="n">
-        <v>6326407.532466855</v>
+        <v>1021269.052102512</v>
       </c>
       <c r="D35" t="n">
-        <v>4466874.937308169</v>
+        <v>790790.0313909075</v>
       </c>
       <c r="E35" t="n">
-        <v>5206307.208935463</v>
+        <v>762726.3585913369</v>
       </c>
       <c r="F35" t="n">
-        <v>5043871.673822332</v>
+        <v>684170.0939842804</v>
       </c>
       <c r="G35" t="n">
-        <v>8072326.283063618</v>
+        <v>1063309.952890249</v>
       </c>
       <c r="H35" t="n">
-        <v>7477514.593449484</v>
+        <v>976189.1564455302</v>
       </c>
       <c r="I35" t="n">
-        <v>7821263.061747476</v>
+        <v>1406725.268908756</v>
       </c>
       <c r="J35" t="n">
-        <v>9836331.854252497</v>
+        <v>1689209.616824858</v>
       </c>
       <c r="K35" t="n">
-        <v>9705167.412081705</v>
+        <v>1420611.151762313</v>
       </c>
       <c r="L35" t="n">
-        <v>7762228.833410361</v>
+        <v>1337319.824393644</v>
       </c>
       <c r="M35" t="n">
-        <v>6326291.886277377</v>
+        <v>1159021.245653627</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3124723.295461488</v>
+        <v>1155910.664399375</v>
       </c>
       <c r="C36" t="n">
-        <v>4588245.362993527</v>
+        <v>948738.3653032639</v>
       </c>
       <c r="D36" t="n">
-        <v>3950382.178966367</v>
+        <v>1045451.177746315</v>
       </c>
       <c r="E36" t="n">
-        <v>4049283.786171975</v>
+        <v>922356.3466833074</v>
       </c>
       <c r="F36" t="n">
-        <v>5408442.471655631</v>
+        <v>888957.6008963477</v>
       </c>
       <c r="G36" t="n">
-        <v>3906592.592705308</v>
+        <v>810542.5821970914</v>
       </c>
       <c r="H36" t="n">
-        <v>3063567.68416945</v>
+        <v>607721.3341801375</v>
       </c>
       <c r="I36" t="n">
-        <v>4089388.951497668</v>
+        <v>588338.6077367263</v>
       </c>
       <c r="J36" t="n">
-        <v>4436551.889194867</v>
+        <v>650224.4636841866</v>
       </c>
       <c r="K36" t="n">
-        <v>3639529.659937606</v>
+        <v>414170.6509955009</v>
       </c>
       <c r="L36" t="n">
-        <v>3423113.500910787</v>
+        <v>425926.9210169904</v>
       </c>
       <c r="M36" t="n">
-        <v>4526801.296145469</v>
+        <v>371647.8525432051</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3337752.731656624</v>
+        <v>2863615.396234742</v>
       </c>
       <c r="C37" t="n">
-        <v>5042918.498578302</v>
+        <v>4314344.85450507</v>
       </c>
       <c r="D37" t="n">
-        <v>6840694.385042557</v>
+        <v>4415022.920270178</v>
       </c>
       <c r="E37" t="n">
-        <v>4633270.758425317</v>
+        <v>3728499.116588379</v>
       </c>
       <c r="F37" t="n">
-        <v>4051728.927022907</v>
+        <v>3791275.723323296</v>
       </c>
       <c r="G37" t="n">
-        <v>3953708.13136204</v>
+        <v>4252589.363141975</v>
       </c>
       <c r="H37" t="n">
-        <v>6720515.870978746</v>
+        <v>5076904.001487307</v>
       </c>
       <c r="I37" t="n">
-        <v>7491023.381397839</v>
+        <v>4424452.322946696</v>
       </c>
       <c r="J37" t="n">
-        <v>4967176.952841184</v>
+        <v>5360654.123086246</v>
       </c>
       <c r="K37" t="n">
-        <v>7074212.589472111</v>
+        <v>4778426.319763803</v>
       </c>
       <c r="L37" t="n">
-        <v>5406391.479649451</v>
+        <v>4126422.119687867</v>
       </c>
       <c r="M37" t="n">
-        <v>6756943.027172712</v>
+        <v>3668650.785870915</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1148901.132978589</v>
+        <v>4155681.281319057</v>
       </c>
       <c r="C38" t="n">
-        <v>1652295.533784958</v>
+        <v>3780967.376437684</v>
       </c>
       <c r="D38" t="n">
-        <v>1489092.164992143</v>
+        <v>4284679.45455738</v>
       </c>
       <c r="E38" t="n">
-        <v>702633.9051181675</v>
+        <v>4715515.53283167</v>
       </c>
       <c r="F38" t="n">
-        <v>676965.6160712752</v>
+        <v>4406795.211791792</v>
       </c>
       <c r="G38" t="n">
-        <v>762152.2872449347</v>
+        <v>4511191.784583766</v>
       </c>
       <c r="H38" t="n">
-        <v>416442.446635496</v>
+        <v>4558779.34005978</v>
       </c>
       <c r="I38" t="n">
-        <v>225418.0317315741</v>
+        <v>5460893.346317199</v>
       </c>
       <c r="J38" t="n">
-        <v>150396.083899342</v>
+        <v>5262761.304856714</v>
       </c>
       <c r="K38" t="n">
-        <v>-7230.37842778208</v>
+        <v>4347220.522074132</v>
       </c>
       <c r="L38" t="n">
-        <v>-192745.2330213637</v>
+        <v>5352715.415820406</v>
       </c>
       <c r="M38" t="n">
-        <v>-256614.0683447271</v>
+        <v>3802599.784282335</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3686994.308561258</v>
+        <v>4538167.534999643</v>
       </c>
       <c r="C39" t="n">
-        <v>3031539.383540007</v>
+        <v>5395579.318271953</v>
       </c>
       <c r="D39" t="n">
-        <v>3193379.652673829</v>
+        <v>5581502.763624781</v>
       </c>
       <c r="E39" t="n">
-        <v>4137049.289860042</v>
+        <v>5528531.285974303</v>
       </c>
       <c r="F39" t="n">
-        <v>3548048.107564477</v>
+        <v>5385425.573052781</v>
       </c>
       <c r="G39" t="n">
-        <v>4572761.033091147</v>
+        <v>5910243.874368032</v>
       </c>
       <c r="H39" t="n">
-        <v>3164568.044685471</v>
+        <v>5911289.423998056</v>
       </c>
       <c r="I39" t="n">
-        <v>3162439.048661768</v>
+        <v>5919305.675284249</v>
       </c>
       <c r="J39" t="n">
-        <v>3449582.833155374</v>
+        <v>6999794.970878328</v>
       </c>
       <c r="K39" t="n">
-        <v>5148926.097284362</v>
+        <v>5291905.236053756</v>
       </c>
       <c r="L39" t="n">
-        <v>4610922.439126778</v>
+        <v>5286396.558541467</v>
       </c>
       <c r="M39" t="n">
-        <v>5025235.893217273</v>
+        <v>4765113.827230349</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9865769.463061998</v>
+        <v>4400876.580025176</v>
       </c>
       <c r="C40" t="n">
-        <v>10453527.25112266</v>
+        <v>5191184.7178832</v>
       </c>
       <c r="D40" t="n">
-        <v>10532270.16789664</v>
+        <v>5416273.223777193</v>
       </c>
       <c r="E40" t="n">
-        <v>14917971.72377517</v>
+        <v>4922889.837379975</v>
       </c>
       <c r="F40" t="n">
-        <v>11206723.68190412</v>
+        <v>5357490.658186198</v>
       </c>
       <c r="G40" t="n">
-        <v>14064978.53649148</v>
+        <v>5146191.219660313</v>
       </c>
       <c r="H40" t="n">
-        <v>11560873.46284804</v>
+        <v>5794397.48897239</v>
       </c>
       <c r="I40" t="n">
-        <v>11095076.80886216</v>
+        <v>5391343.622742134</v>
       </c>
       <c r="J40" t="n">
-        <v>14510980.94658685</v>
+        <v>5920140.556847052</v>
       </c>
       <c r="K40" t="n">
-        <v>17710862.80157469</v>
+        <v>5273135.189743093</v>
       </c>
       <c r="L40" t="n">
-        <v>16285863.44967021</v>
+        <v>5795682.760322823</v>
       </c>
       <c r="M40" t="n">
-        <v>16966482.6283854</v>
+        <v>4445169.37037455</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2541450.410195566</v>
+        <v>2260228.082631389</v>
       </c>
       <c r="C41" t="n">
-        <v>5367272.963588761</v>
+        <v>3095811.749913277</v>
       </c>
       <c r="D41" t="n">
-        <v>4905592.917087612</v>
+        <v>3678656.000185822</v>
       </c>
       <c r="E41" t="n">
-        <v>5451854.405038628</v>
+        <v>2733184.309145386</v>
       </c>
       <c r="F41" t="n">
-        <v>4356565.781951588</v>
+        <v>3038966.289478549</v>
       </c>
       <c r="G41" t="n">
-        <v>5520984.94378266</v>
+        <v>3293522.324463572</v>
       </c>
       <c r="H41" t="n">
-        <v>4791213.098626169</v>
+        <v>3396939.066027343</v>
       </c>
       <c r="I41" t="n">
-        <v>9471911.434558541</v>
+        <v>3727010.68130275</v>
       </c>
       <c r="J41" t="n">
-        <v>7160407.423808208</v>
+        <v>3908238.59065609</v>
       </c>
       <c r="K41" t="n">
-        <v>5175561.307154478</v>
+        <v>2999057.296447729</v>
       </c>
       <c r="L41" t="n">
-        <v>5000828.056795087</v>
+        <v>3901026.348602121</v>
       </c>
       <c r="M41" t="n">
-        <v>4834648.009678093</v>
+        <v>2845795.825582196</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6567229.974599743</v>
+        <v>3413518.771549378</v>
       </c>
       <c r="C42" t="n">
-        <v>9386388.212729894</v>
+        <v>3762447.317669565</v>
       </c>
       <c r="D42" t="n">
-        <v>12423677.03796224</v>
+        <v>4101669.696158629</v>
       </c>
       <c r="E42" t="n">
-        <v>12678361.15193326</v>
+        <v>3863683.782640016</v>
       </c>
       <c r="F42" t="n">
-        <v>8919502.760447619</v>
+        <v>4012416.5457245</v>
       </c>
       <c r="G42" t="n">
-        <v>10713613.99049162</v>
+        <v>4079119.934694442</v>
       </c>
       <c r="H42" t="n">
-        <v>11084933.80931428</v>
+        <v>4632280.43525862</v>
       </c>
       <c r="I42" t="n">
-        <v>8839796.413177703</v>
+        <v>5275005.916111678</v>
       </c>
       <c r="J42" t="n">
-        <v>13385468.19939936</v>
+        <v>5090386.055922221</v>
       </c>
       <c r="K42" t="n">
-        <v>11618133.54996556</v>
+        <v>4716253.273220742</v>
       </c>
       <c r="L42" t="n">
-        <v>11494423.39528309</v>
+        <v>4513904.996443553</v>
       </c>
       <c r="M42" t="n">
-        <v>17632679.1822413</v>
+        <v>3047765.575596337</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3658856.94115189</v>
+        <v>2210816.99822283</v>
       </c>
       <c r="C43" t="n">
-        <v>4342665.708224143</v>
+        <v>3262963.416855264</v>
       </c>
       <c r="D43" t="n">
-        <v>5416281.532125418</v>
+        <v>3400703.41363781</v>
       </c>
       <c r="E43" t="n">
-        <v>5391112.965882416</v>
+        <v>3193025.694104891</v>
       </c>
       <c r="F43" t="n">
-        <v>3831734.717458643</v>
+        <v>3092820.834087084</v>
       </c>
       <c r="G43" t="n">
-        <v>4066499.905635132</v>
+        <v>3135516.048566589</v>
       </c>
       <c r="H43" t="n">
-        <v>4850790.342803352</v>
+        <v>3234873.006247297</v>
       </c>
       <c r="I43" t="n">
-        <v>4210434.201633091</v>
+        <v>3276450.131389142</v>
       </c>
       <c r="J43" t="n">
-        <v>5971020.26540735</v>
+        <v>3269077.567656894</v>
       </c>
       <c r="K43" t="n">
-        <v>5716643.412784609</v>
+        <v>3404009.191903695</v>
       </c>
       <c r="L43" t="n">
-        <v>5178199.694502756</v>
+        <v>3629787.11062602</v>
       </c>
       <c r="M43" t="n">
-        <v>6183342.14613637</v>
+        <v>2426347.004438753</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10331163.10181932</v>
+        <v>4762715.314470788</v>
       </c>
       <c r="C44" t="n">
-        <v>14351492.82049009</v>
+        <v>5597722.690214952</v>
       </c>
       <c r="D44" t="n">
-        <v>14067529.05937617</v>
+        <v>5048393.128893949</v>
       </c>
       <c r="E44" t="n">
-        <v>12857914.97530903</v>
+        <v>4308314.407092865</v>
       </c>
       <c r="F44" t="n">
-        <v>14741988.43755453</v>
+        <v>4674816.407103607</v>
       </c>
       <c r="G44" t="n">
-        <v>12810773.58203457</v>
+        <v>5201408.233217634</v>
       </c>
       <c r="H44" t="n">
-        <v>12838543.79841511</v>
+        <v>4651530.199265218</v>
       </c>
       <c r="I44" t="n">
-        <v>16970000.59772919</v>
+        <v>5833089.241440637</v>
       </c>
       <c r="J44" t="n">
-        <v>16664537.19450881</v>
+        <v>5075861.43868173</v>
       </c>
       <c r="K44" t="n">
-        <v>16269034.66755983</v>
+        <v>4901711.096231926</v>
       </c>
       <c r="L44" t="n">
-        <v>14001357.49146758</v>
+        <v>5788729.764882949</v>
       </c>
       <c r="M44" t="n">
-        <v>19158192.95767593</v>
+        <v>4186986.038464962</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3208855.721621697</v>
+        <v>2332686.725609436</v>
       </c>
       <c r="C45" t="n">
-        <v>4573540.674003694</v>
+        <v>2816414.269307221</v>
       </c>
       <c r="D45" t="n">
-        <v>5464268.232631947</v>
+        <v>3205947.292621272</v>
       </c>
       <c r="E45" t="n">
-        <v>4467628.751574798</v>
+        <v>3046486.734009058</v>
       </c>
       <c r="F45" t="n">
-        <v>3887194.920423185</v>
+        <v>2622718.923441692</v>
       </c>
       <c r="G45" t="n">
-        <v>2974613.737603182</v>
+        <v>2957468.299742414</v>
       </c>
       <c r="H45" t="n">
-        <v>5867619.88616003</v>
+        <v>2986434.06044992</v>
       </c>
       <c r="I45" t="n">
-        <v>4743456.293968467</v>
+        <v>3636179.148767404</v>
       </c>
       <c r="J45" t="n">
-        <v>3979644.41370473</v>
+        <v>2854147.261040146</v>
       </c>
       <c r="K45" t="n">
-        <v>4270218.450340849</v>
+        <v>2912420.415845136</v>
       </c>
       <c r="L45" t="n">
-        <v>3476203.35867877</v>
+        <v>3110780.678361933</v>
       </c>
       <c r="M45" t="n">
-        <v>4785114.748908357</v>
+        <v>2410175.3111879</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9365079.084610606</v>
+        <v>62363011.48163617</v>
       </c>
       <c r="C46" t="n">
-        <v>13589394.77307161</v>
+        <v>1215954.42278885</v>
       </c>
       <c r="D46" t="n">
-        <v>13481245.2354424</v>
+        <v>887950.8169082889</v>
       </c>
       <c r="E46" t="n">
-        <v>14597294.67377556</v>
+        <v>144395952.0015591</v>
       </c>
       <c r="F46" t="n">
-        <v>10152229.54006015</v>
+        <v>83912104.72055595</v>
       </c>
       <c r="G46" t="n">
-        <v>13678130.28890801</v>
+        <v>79835276.48152275</v>
       </c>
       <c r="H46" t="n">
-        <v>20562678.61382186</v>
+        <v>873708.9891035839</v>
       </c>
       <c r="I46" t="n">
-        <v>13738150.06434008</v>
+        <v>484763328.8413785</v>
       </c>
       <c r="J46" t="n">
-        <v>10184233.85296323</v>
+        <v>6352782.282553794</v>
       </c>
       <c r="K46" t="n">
-        <v>9334504.008480787</v>
+        <v>681589.2281529615</v>
       </c>
       <c r="L46" t="n">
-        <v>13282723.78309178</v>
+        <v>790672.7734673292</v>
       </c>
       <c r="M46" t="n">
-        <v>20068066.04760193</v>
+        <v>676054.0058540559</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1844616.953800596</v>
+        <v>6037765.650093651</v>
       </c>
       <c r="C47" t="n">
-        <v>1972403.540611179</v>
+        <v>1952646089486.264</v>
       </c>
       <c r="D47" t="n">
-        <v>2458337.998598425</v>
+        <v>24570734.24658724</v>
       </c>
       <c r="E47" t="n">
-        <v>1928780.911167275</v>
+        <v>2252908709.785077</v>
       </c>
       <c r="F47" t="n">
-        <v>1757162.522248994</v>
+        <v>33988722.90804188</v>
       </c>
       <c r="G47" t="n">
-        <v>2039480.068078414</v>
+        <v>915531904.1931341</v>
       </c>
       <c r="H47" t="n">
-        <v>1790979.423257606</v>
+        <v>47693286.05160926</v>
       </c>
       <c r="I47" t="n">
-        <v>1751610.621467497</v>
+        <v>52964052.43436094</v>
       </c>
       <c r="J47" t="n">
-        <v>1748156.09224643</v>
+        <v>20390901712.33206</v>
       </c>
       <c r="K47" t="n">
-        <v>1587645.049104659</v>
+        <v>1452345141.14373</v>
       </c>
       <c r="L47" t="n">
-        <v>2242445.559539965</v>
+        <v>30206973657.30433</v>
       </c>
       <c r="M47" t="n">
-        <v>2297557.92743341</v>
+        <v>47498740.76015808</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>333371.192740624</v>
+        <v>4792627.574523383</v>
       </c>
       <c r="C48" t="n">
-        <v>221617.5618590067</v>
+        <v>4773387.883289825</v>
       </c>
       <c r="D48" t="n">
-        <v>182956.4469982738</v>
+        <v>5203648.687823315</v>
       </c>
       <c r="E48" t="n">
-        <v>303958.9778194415</v>
+        <v>4645038.178048168</v>
       </c>
       <c r="F48" t="n">
-        <v>206051.8179850366</v>
+        <v>4303953.239919517</v>
       </c>
       <c r="G48" t="n">
-        <v>170164.1197865365</v>
+        <v>4588354.979440745</v>
       </c>
       <c r="H48" t="n">
-        <v>246507.2193283791</v>
+        <v>4644046.269397924</v>
       </c>
       <c r="I48" t="n">
-        <v>261170.4549235337</v>
+        <v>5372455.06279724</v>
       </c>
       <c r="J48" t="n">
-        <v>406778.7454979426</v>
+        <v>5502935.984259426</v>
       </c>
       <c r="K48" t="n">
-        <v>318607.7282949183</v>
+        <v>5067475.769248815</v>
       </c>
       <c r="L48" t="n">
-        <v>326897.7351418381</v>
+        <v>5491337.986975953</v>
       </c>
       <c r="M48" t="n">
-        <v>548239.303453465</v>
+        <v>4668453.742972686</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>483876.3811211819</v>
+        <v>1594345.052146161</v>
       </c>
       <c r="C49" t="n">
-        <v>657313.1049025564</v>
+        <v>2905340.095640571</v>
       </c>
       <c r="D49" t="n">
-        <v>922978.3917644974</v>
+        <v>3023448.364738554</v>
       </c>
       <c r="E49" t="n">
-        <v>990737.754657118</v>
+        <v>1891759.356735397</v>
       </c>
       <c r="F49" t="n">
-        <v>625057.8761646744</v>
+        <v>1693090.310239933</v>
       </c>
       <c r="G49" t="n">
-        <v>724973.4037084056</v>
+        <v>2001603.893023807</v>
       </c>
       <c r="H49" t="n">
-        <v>643894.0140030726</v>
+        <v>1311321.795985063</v>
       </c>
       <c r="I49" t="n">
-        <v>600288.3702398147</v>
+        <v>1789893.532771567</v>
       </c>
       <c r="J49" t="n">
-        <v>849596.571123169</v>
+        <v>981099.110682112</v>
       </c>
       <c r="K49" t="n">
-        <v>969754.5205109927</v>
+        <v>1177609.118210611</v>
       </c>
       <c r="L49" t="n">
-        <v>1058075.738295153</v>
+        <v>1387480.169129553</v>
       </c>
       <c r="M49" t="n">
-        <v>1066389.532072569</v>
+        <v>885048.7893907588</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1410132.244245232</v>
+        <v>1961604.00357689</v>
       </c>
       <c r="C50" t="n">
-        <v>1602964.125688699</v>
+        <v>2287355.438617323</v>
       </c>
       <c r="D50" t="n">
-        <v>2082300.139578153</v>
+        <v>3092557.652140495</v>
       </c>
       <c r="E50" t="n">
-        <v>2267838.498638434</v>
+        <v>4780558.973362772</v>
       </c>
       <c r="F50" t="n">
-        <v>2081990.791471367</v>
+        <v>4724590.564368915</v>
       </c>
       <c r="G50" t="n">
-        <v>2312096.894595716</v>
+        <v>3929411.187398284</v>
       </c>
       <c r="H50" t="n">
-        <v>1469978.148874984</v>
+        <v>4198096.109547173</v>
       </c>
       <c r="I50" t="n">
-        <v>1507152.008527146</v>
+        <v>4174614.585539856</v>
       </c>
       <c r="J50" t="n">
-        <v>2084162.728308366</v>
+        <v>2514895.936323541</v>
       </c>
       <c r="K50" t="n">
-        <v>2470399.389311224</v>
+        <v>2838640.268448714</v>
       </c>
       <c r="L50" t="n">
-        <v>2712524.644435787</v>
+        <v>3317395.817707068</v>
       </c>
       <c r="M50" t="n">
-        <v>2963497.543639096</v>
+        <v>2264018.275415614</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3148139.429320137</v>
+        <v>3330254.841083073</v>
       </c>
       <c r="C51" t="n">
-        <v>2971600.311902383</v>
+        <v>3134604.562320814</v>
       </c>
       <c r="D51" t="n">
-        <v>3604072.959227488</v>
+        <v>6296989.219013889</v>
       </c>
       <c r="E51" t="n">
-        <v>3839922.350852843</v>
+        <v>5549793.941260255</v>
       </c>
       <c r="F51" t="n">
-        <v>3643785.433193166</v>
+        <v>5694356.070099342</v>
       </c>
       <c r="G51" t="n">
-        <v>6228632.951066481</v>
+        <v>5368770.539042532</v>
       </c>
       <c r="H51" t="n">
-        <v>6901769.651803442</v>
+        <v>5834813.959791385</v>
       </c>
       <c r="I51" t="n">
-        <v>6751932.812718295</v>
+        <v>6047407.268467387</v>
       </c>
       <c r="J51" t="n">
-        <v>6056337.259595582</v>
+        <v>4285831.727916017</v>
       </c>
       <c r="K51" t="n">
-        <v>6062830.45363494</v>
+        <v>4035752.611121818</v>
       </c>
       <c r="L51" t="n">
-        <v>3513941.233381056</v>
+        <v>3872882.556650476</v>
       </c>
       <c r="M51" t="n">
-        <v>3845108.791526183</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2656468.742503989</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2516205.139316236</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2733721.279370662</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3038321.361301009</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3070881.065881988</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3144393.908728409</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3209712.305073007</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4155701.426633839</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2751829.052223328</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4214173.397502346</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3016622.470988932</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3704590.803349153</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1615293.889872484</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1165334.416048483</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1660743.16756873</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1269669.54018951</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1210941.786841474</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1075090.784772452</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1536450.366828683</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1552090.31151979</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2229045.554279203</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2561969.011668496</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2128742.530021131</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1987716.419411223</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>719148.6038756337</v>
-      </c>
-      <c r="C54" t="n">
-        <v>975807.8291977977</v>
-      </c>
-      <c r="D54" t="n">
-        <v>770723.5771652914</v>
-      </c>
-      <c r="E54" t="n">
-        <v>812493.9644483896</v>
-      </c>
-      <c r="F54" t="n">
-        <v>680732.0494151267</v>
-      </c>
-      <c r="G54" t="n">
-        <v>617172.2417761128</v>
-      </c>
-      <c r="H54" t="n">
-        <v>574269.4949836363</v>
-      </c>
-      <c r="I54" t="n">
-        <v>357974.2349385468</v>
-      </c>
-      <c r="J54" t="n">
-        <v>308906.7408122565</v>
-      </c>
-      <c r="K54" t="n">
-        <v>293321.7863016375</v>
-      </c>
-      <c r="L54" t="n">
-        <v>151049.6498517562</v>
-      </c>
-      <c r="M54" t="n">
-        <v>111767.9324613017</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2603979.037774454</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2726047.725977819</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4118001.020868077</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4198571.359837838</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3616947.718060513</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3797780.863655278</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4729371.434043005</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4982912.455235922</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4359436.719725515</v>
-      </c>
-      <c r="K55" t="n">
-        <v>5301020.540593074</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4747183.612154367</v>
-      </c>
-      <c r="M55" t="n">
-        <v>4114777.002692525</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3387668.378717597</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4157924.724395046</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3782749.740771269</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4286408.19856966</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4717109.687291149</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4408000.863840946</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4807021.62418645</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4559469.123735816</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5461383.439051217</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5262919.984949362</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4347093.379030773</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5352158.60670569</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4093790.236442266</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4648384.826868433</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5532139.842442852</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5728580.000485848</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5679292.232489953</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5536964.616200829</v>
-      </c>
-      <c r="H57" t="n">
-        <v>6490787.406193987</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6088066.265534114</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6101276.295157761</v>
-      </c>
-      <c r="K57" t="n">
-        <v>7220707.717729159</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5463113.824359331</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5461497.752881347</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>3924350.906285798</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4391036.94173188</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5186012.377363019</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5417449.907987514</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4929811.88130564</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5371262.109445793</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5123101.495154409</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5822378.432909432</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5423288.578264412</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5961581.694948313</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5315604.435344636</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5848383.165800888</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2597961.954517755</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2303858.52274143</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3158134.970372018</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3755704.968502997</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2792617.395760324</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3107433.793153132</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3670746.571817353</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3478662.856156245</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3819443.501431158</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4008016.613763471</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3077772.164432313</v>
-      </c>
-      <c r="M59" t="n">
-        <v>4006166.519399764</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2819314.903071797</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3431636.227147036</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3784474.501538198</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4127893.517810595</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3890440.895839903</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4042307.006340801</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4370840.934840122</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4671554.994039693</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5322382.97660015</v>
-      </c>
-      <c r="K60" t="n">
-        <v>5138631.300647007</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4763261.715752643</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4561143.866098505</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2109719.882394379</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2080935.625295412</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3091299.369726634</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3242406.618062795</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3063499.521627121</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2985643.953229866</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3092799.810426074</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3160353.372424695</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3219643.692386279</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3230811.298045407</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3383113.64589812</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3627438.76305888</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4830890.375286643</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5309348.42881264</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6272413.835207465</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5686121.623564838</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4877691.602022308</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5320130.189573593</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6601027.409206854</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5348947.821391514</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6742578.246400756</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5897880.020327364</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5725283.435858515</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6796830.878458448</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2360410.118259821</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2404344.404173105</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2917509.350481403</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3337502.751518839</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3187049.245999202</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2757012.054830255</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3267847.115573146</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3169299.113324414</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3876829.232574476</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3057058.476800646</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3133681.071356541</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3362120.037717006</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2021783.251392249</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2179528.826977917</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3150250.653184722</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2348840.7110718</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2357032.635631523</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2267489.838662869</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2466725.897514195</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2515969.355104794</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2816925.919833868</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2895860.179595439</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2096180.364362828</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2486798.030994796</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2486954.035522375</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2646807.661582412</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3084051.295246321</v>
-      </c>
-      <c r="E65" t="n">
-        <v>235161738.631534</v>
-      </c>
-      <c r="F65" t="n">
-        <v>5101316.300311705</v>
-      </c>
-      <c r="G65" t="n">
-        <v>4050158.606564596</v>
-      </c>
-      <c r="H65" t="n">
-        <v>4530900.362604287</v>
-      </c>
-      <c r="I65" t="n">
-        <v>4166857.584291923</v>
-      </c>
-      <c r="J65" t="n">
-        <v>4082915.332347293</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2840223.423350521</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2320383.946275645</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2312431.087679396</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4595738.210840723</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5257533.783911267</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5240041.818440837</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5716204.832991517</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5105970.396793073</v>
-      </c>
-      <c r="G66" t="n">
-        <v>4734125.910221448</v>
-      </c>
-      <c r="H66" t="n">
-        <v>4947160.964790493</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5114669.837499955</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5920548.509955716</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6068017.56249827</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5591177.974345153</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6062407.556573913</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>624498.2917789137</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1438410.788087361</v>
-      </c>
-      <c r="D67" t="n">
-        <v>2626417.684672178</v>
-      </c>
-      <c r="E67" t="n">
-        <v>2738407.861191904</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1716540.394582658</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1538958.156736755</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1941252.469241749</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1195881.764533095</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1634807.700974786</v>
-      </c>
-      <c r="K67" t="n">
-        <v>897416.0643041639</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1078696.601099842</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1272662.46331106</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1819654.735617927</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1965965.400812548</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2291948.143040867</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3111798.411820486</v>
-      </c>
-      <c r="F68" t="n">
-        <v>4831618.430804195</v>
-      </c>
-      <c r="G68" t="n">
-        <v>4725271.778766189</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3952714.795815503</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4153231.981495557</v>
-      </c>
-      <c r="J68" t="n">
-        <v>4112040.35341052</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2330593.531474908</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2679114.291211358</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3154940.310888231</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2282364.615589932</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2836521.397643462</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2669308.338849683</v>
-      </c>
-      <c r="E69" t="n">
-        <v>5361537.917379139</v>
-      </c>
-      <c r="F69" t="n">
-        <v>4724093.544941719</v>
-      </c>
-      <c r="G69" t="n">
-        <v>4846168.960757083</v>
-      </c>
-      <c r="H69" t="n">
-        <v>4651278.589183825</v>
-      </c>
-      <c r="I69" t="n">
-        <v>4963807.998161534</v>
-      </c>
-      <c r="J69" t="n">
-        <v>5143706.805961372</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3644719.340420816</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3431430.148965491</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3292395.651283009</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>32114146.32130408</v>
-      </c>
-      <c r="C70" t="n">
-        <v>95424865.37576796</v>
-      </c>
-      <c r="D70" t="n">
-        <v>23807619.61024437</v>
-      </c>
-      <c r="E70" t="n">
-        <v>46386732.59903374</v>
-      </c>
-      <c r="F70" t="n">
-        <v>42121934.93165437</v>
-      </c>
-      <c r="G70" t="n">
-        <v>43937275.22827278</v>
-      </c>
-      <c r="H70" t="n">
-        <v>43973093.65748622</v>
-      </c>
-      <c r="I70" t="n">
-        <v>19349496.57875806</v>
-      </c>
-      <c r="J70" t="n">
-        <v>30503098.03738514</v>
-      </c>
-      <c r="K70" t="n">
-        <v>51775282.34624508</v>
-      </c>
-      <c r="L70" t="n">
-        <v>53151734.06869745</v>
-      </c>
-      <c r="M70" t="n">
-        <v>68370275.3731204</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>6911508.147841819</v>
-      </c>
-      <c r="C71" t="n">
-        <v>30935945.38562126</v>
-      </c>
-      <c r="D71" t="n">
-        <v>26804019.61321379</v>
-      </c>
-      <c r="E71" t="n">
-        <v>31435199.02195015</v>
-      </c>
-      <c r="F71" t="n">
-        <v>32809938.34929138</v>
-      </c>
-      <c r="G71" t="n">
-        <v>36106603.31142171</v>
-      </c>
-      <c r="H71" t="n">
-        <v>31318642.73756362</v>
-      </c>
-      <c r="I71" t="n">
-        <v>33883749.60390218</v>
-      </c>
-      <c r="J71" t="n">
-        <v>37225558.87279668</v>
-      </c>
-      <c r="K71" t="n">
-        <v>36469134.41158739</v>
-      </c>
-      <c r="L71" t="n">
-        <v>42566939.96847264</v>
-      </c>
-      <c r="M71" t="n">
-        <v>76450550.95916705</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>961065.47150383</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1755157.941758004</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1875875.717854714</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1289590.002712231</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4259219.791424778</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1098905.174256946</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1705151.851420789</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1437381.976239241</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2029072.118833093</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1077323.447395435</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2305572.614640896</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1710917.721809245</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>8827768.85582288</v>
-      </c>
-      <c r="C73" t="n">
-        <v>32468502.89032004</v>
-      </c>
-      <c r="D73" t="n">
-        <v>48184802.91572014</v>
-      </c>
-      <c r="E73" t="n">
-        <v>31609514.35120779</v>
-      </c>
-      <c r="F73" t="n">
-        <v>26475763.11964602</v>
-      </c>
-      <c r="G73" t="n">
-        <v>20235931.46249889</v>
-      </c>
-      <c r="H73" t="n">
-        <v>17644461.59155835</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15255757.50215561</v>
-      </c>
-      <c r="J73" t="n">
-        <v>12543407.26278665</v>
-      </c>
-      <c r="K73" t="n">
-        <v>23025389.83265444</v>
-      </c>
-      <c r="L73" t="n">
-        <v>9083644.619150124</v>
-      </c>
-      <c r="M73" t="n">
-        <v>15660467.68353259</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>12910257.16910595</v>
-      </c>
-      <c r="C74" t="n">
-        <v>20759210.73515005</v>
-      </c>
-      <c r="D74" t="n">
-        <v>23405246.86494384</v>
-      </c>
-      <c r="E74" t="n">
-        <v>22869664.7675852</v>
-      </c>
-      <c r="F74" t="n">
-        <v>20828302.68250042</v>
-      </c>
-      <c r="G74" t="n">
-        <v>20823422.80715938</v>
-      </c>
-      <c r="H74" t="n">
-        <v>20516807.74829387</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16627536.34455471</v>
-      </c>
-      <c r="J74" t="n">
-        <v>20239051.07158023</v>
-      </c>
-      <c r="K74" t="n">
-        <v>20132483.84994999</v>
-      </c>
-      <c r="L74" t="n">
-        <v>22324188.94935104</v>
-      </c>
-      <c r="M74" t="n">
-        <v>29974839.95643444</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>23459454.99298764</v>
-      </c>
-      <c r="C75" t="n">
-        <v>28225869.3419805</v>
-      </c>
-      <c r="D75" t="n">
-        <v>32655088.56498004</v>
-      </c>
-      <c r="E75" t="n">
-        <v>36795957.55158937</v>
-      </c>
-      <c r="F75" t="n">
-        <v>32758651.82347273</v>
-      </c>
-      <c r="G75" t="n">
-        <v>34149634.2224702</v>
-      </c>
-      <c r="H75" t="n">
-        <v>32597796.89205982</v>
-      </c>
-      <c r="I75" t="n">
-        <v>34286179.79154143</v>
-      </c>
-      <c r="J75" t="n">
-        <v>28854450.17668467</v>
-      </c>
-      <c r="K75" t="n">
-        <v>29743363.51718877</v>
-      </c>
-      <c r="L75" t="n">
-        <v>30084754.52743798</v>
-      </c>
-      <c r="M75" t="n">
-        <v>47866696.83134287</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>987780539.8072207</v>
-      </c>
-      <c r="C76" t="n">
-        <v>25881348.70297458</v>
-      </c>
-      <c r="D76" t="n">
-        <v>39955580.29154412</v>
-      </c>
-      <c r="E76" t="n">
-        <v>44483626.64870096</v>
-      </c>
-      <c r="F76" t="n">
-        <v>36879955.89457824</v>
-      </c>
-      <c r="G76" t="n">
-        <v>39952279.98352342</v>
-      </c>
-      <c r="H76" t="n">
-        <v>26550338.15391132</v>
-      </c>
-      <c r="I76" t="n">
-        <v>23138030.86100512</v>
-      </c>
-      <c r="J76" t="n">
-        <v>24227167.31626844</v>
-      </c>
-      <c r="K76" t="n">
-        <v>27448215.08538075</v>
-      </c>
-      <c r="L76" t="n">
-        <v>23388977.42209877</v>
-      </c>
-      <c r="M76" t="n">
-        <v>26983311.52508609</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>8312308.66574073</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9205162.3664214</v>
-      </c>
-      <c r="D77" t="n">
-        <v>9285541.328770149</v>
-      </c>
-      <c r="E77" t="n">
-        <v>10326001.78659503</v>
-      </c>
-      <c r="F77" t="n">
-        <v>6046880.107836948</v>
-      </c>
-      <c r="G77" t="n">
-        <v>7884569.916240951</v>
-      </c>
-      <c r="H77" t="n">
-        <v>8552280.041437123</v>
-      </c>
-      <c r="I77" t="n">
-        <v>8832978.486142479</v>
-      </c>
-      <c r="J77" t="n">
-        <v>10692449.29018645</v>
-      </c>
-      <c r="K77" t="n">
-        <v>12551579.19466469</v>
-      </c>
-      <c r="L77" t="n">
-        <v>280860494.4026648</v>
-      </c>
-      <c r="M77" t="n">
-        <v>22252989.45859135</v>
+        <v>3083014.861215649</v>
       </c>
     </row>
   </sheetData>
